--- a/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2793" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="576">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T14:06:21+00:00</t>
+    <t>2023-03-07T10:12:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -505,7 +505,7 @@
     <t>Patients are almost always assigned specific numerical identifiers.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:system}
+    <t xml:space="preserve">pattern:system}
 </t>
   </si>
   <si>
@@ -753,44 +753,255 @@
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
-    <t>Patient.identifier:MN</t>
-  </si>
-  <si>
-    <t>MN</t>
-  </si>
-  <si>
-    <t>Patient.identifier:MN.id</t>
-  </si>
-  <si>
-    <t>Patient.identifier:MN.extension</t>
-  </si>
-  <si>
-    <t>Patient.identifier:MN.use</t>
-  </si>
-  <si>
-    <t>Patient.identifier:MN.type</t>
-  </si>
-  <si>
-    <t>Patient.identifier:MN.system</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/hiv-cbs/identifier/mn</t>
-  </si>
-  <si>
-    <t>Patient.identifier:MN.value</t>
-  </si>
-  <si>
-    <t>Patient.identifier:MN.period</t>
-  </si>
-  <si>
-    <t>Patient.identifier:MN.assigner</t>
-  </si>
-  <si>
-    <t>Patient.active</t>
+    <t>Patient.identifier:MR</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MR.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MR.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MR.use</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MR.type</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MR.type.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MR.type.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MR.type.coding</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MR.type.coding.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type.coding.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MR.type.coding.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type.coding.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MR.type.coding.system</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/v2-0203</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MR.type.coding.version</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MR.type.coding.code</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MR.type.coding.display</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MR.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type.coding.userSelected</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
 </t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MR.type.text</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MR.system</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-cbs/identifier/mr</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MR.value</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MR.period</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MR.assigner</t>
+  </si>
+  <si>
+    <t>Patient.active</t>
   </si>
   <si>
     <t>Whether this patient's record is in active use</t>
@@ -1887,7 +2098,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO74"/>
+  <dimension ref="A1:AO85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1896,8 +2107,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.47265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.7109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.23828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -4993,7 +5204,7 @@
         <v>244</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5001,7 +5212,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>87</v>
@@ -5013,35 +5224,31 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>245</v>
+        <v>80</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>80</v>
@@ -5077,7 +5284,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5089,10 +5296,10 @@
         <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>80</v>
@@ -5101,7 +5308,7 @@
         <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
@@ -5112,18 +5319,18 @@
         <v>246</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
@@ -5132,19 +5339,19 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>216</v>
+        <v>149</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5158,7 +5365,7 @@
         <v>80</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>80</v>
@@ -5182,34 +5389,34 @@
         <v>80</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>80</v>
@@ -5218,7 +5425,7 @@
         <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
@@ -5226,10 +5433,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5240,7 +5447,7 @@
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -5252,16 +5459,20 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5309,13 +5520,13 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>80</v>
@@ -5324,7 +5535,7 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>80</v>
@@ -5333,7 +5544,7 @@
         <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>80</v>
@@ -5341,10 +5552,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5364,20 +5575,18 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5426,7 +5635,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>235</v>
+        <v>170</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5438,10 +5647,10 @@
         <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>236</v>
+        <v>171</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>80</v>
@@ -5450,7 +5659,7 @@
         <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>80</v>
@@ -5458,52 +5667,48 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>250</v>
+        <v>132</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>251</v>
+        <v>174</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>252</v>
+        <v>175</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q31" t="s" s="2">
-        <v>255</v>
-      </c>
+      <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5535,40 +5740,40 @@
         <v>80</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>249</v>
+        <v>177</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>256</v>
+        <v>171</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>257</v>
+        <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -5579,10 +5784,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5593,7 +5798,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -5605,19 +5810,19 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>259</v>
+        <v>101</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -5627,7 +5832,7 @@
         <v>80</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>80</v>
+        <v>268</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>80</v>
@@ -5666,13 +5871,13 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
@@ -5681,16 +5886,16 @@
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
@@ -5698,10 +5903,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5721,18 +5926,20 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>167</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>168</v>
+        <v>274</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -5781,7 +5988,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>170</v>
+        <v>277</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5793,10 +6000,10 @@
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>171</v>
+        <v>278</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>80</v>
@@ -5805,7 +6012,7 @@
         <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>80</v>
+        <v>279</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>80</v>
@@ -5813,21 +6020,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>80</v>
@@ -5836,21 +6043,21 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>174</v>
+        <v>282</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
       </c>
@@ -5859,7 +6066,7 @@
         <v>80</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>80</v>
@@ -5886,34 +6093,34 @@
         <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>177</v>
+        <v>285</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>171</v>
+        <v>286</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>80</v>
@@ -5922,7 +6129,7 @@
         <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>80</v>
@@ -5930,10 +6137,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5950,25 +6157,23 @@
         <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -5993,13 +6198,13 @@
         <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>275</v>
+        <v>80</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>80</v>
@@ -6017,7 +6222,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6032,7 +6237,7 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>80</v>
@@ -6041,7 +6246,7 @@
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>80</v>
@@ -6049,10 +6254,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6075,19 +6280,19 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>167</v>
+        <v>298</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6136,7 +6341,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6151,7 +6356,7 @@
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>80</v>
@@ -6160,7 +6365,7 @@
         <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>80</v>
@@ -6168,18 +6373,18 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>288</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>87</v>
@@ -6197,15 +6402,17 @@
         <v>167</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6253,7 +6460,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6268,7 +6475,7 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>80</v>
@@ -6277,7 +6484,7 @@
         <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -6285,21 +6492,21 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>295</v>
+        <v>202</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -6311,30 +6518,32 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>297</v>
+        <v>203</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>298</v>
+        <v>204</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>80</v>
@@ -6370,13 +6579,13 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>300</v>
+        <v>209</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>80</v>
@@ -6385,7 +6594,7 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>301</v>
+        <v>210</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>80</v>
@@ -6394,7 +6603,7 @@
         <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>302</v>
+        <v>211</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
@@ -6402,10 +6611,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>303</v>
+        <v>213</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6413,10 +6622,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6431,12 +6640,14 @@
         <v>167</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>304</v>
+        <v>214</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6449,7 +6660,7 @@
         <v>80</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>80</v>
+        <v>217</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>80</v>
@@ -6485,13 +6696,13 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>306</v>
+        <v>218</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>80</v>
@@ -6500,7 +6711,7 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>307</v>
+        <v>219</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>80</v>
@@ -6509,7 +6720,7 @@
         <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>308</v>
+        <v>220</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -6517,10 +6728,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>309</v>
+        <v>222</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6531,7 +6742,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -6543,13 +6754,13 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>167</v>
+        <v>223</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>310</v>
+        <v>224</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>311</v>
+        <v>225</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6600,13 +6811,13 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>312</v>
+        <v>226</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
@@ -6615,7 +6826,7 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>313</v>
+        <v>227</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>80</v>
@@ -6624,7 +6835,7 @@
         <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>314</v>
+        <v>228</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
@@ -6632,10 +6843,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>315</v>
+        <v>230</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6658,18 +6869,18 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>316</v>
+        <v>232</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6717,7 +6928,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>319</v>
+        <v>235</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6732,7 +6943,7 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>320</v>
+        <v>236</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>80</v>
@@ -6741,7 +6952,7 @@
         <v>80</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>321</v>
+        <v>237</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -6749,10 +6960,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6763,36 +6974,38 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="P42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q42" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="N42" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="P42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6836,13 +7049,13 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
@@ -6851,16 +7064,16 @@
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>329</v>
+        <v>171</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>80</v>
+        <v>327</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>80</v>
@@ -6868,10 +7081,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6879,10 +7092,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>80</v>
@@ -6894,19 +7107,19 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>107</v>
+        <v>329</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>80</v>
@@ -6931,13 +7144,13 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>336</v>
+        <v>80</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>337</v>
+        <v>80</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
@@ -6955,13 +7168,13 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>80</v>
@@ -6970,16 +7183,16 @@
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>80</v>
@@ -6987,10 +7200,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6998,7 +7211,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>87</v>
@@ -7010,23 +7223,19 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>342</v>
+        <v>167</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>343</v>
+        <v>168</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7074,7 +7283,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>341</v>
+        <v>170</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7086,66 +7295,64 @@
         <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>347</v>
+        <v>171</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>349</v>
+        <v>80</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>350</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>352</v>
+        <v>132</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>353</v>
+        <v>174</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>354</v>
+        <v>175</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7181,43 +7388,43 @@
         <v>80</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>351</v>
+        <v>177</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>357</v>
+        <v>171</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>358</v>
+        <v>80</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
@@ -7225,10 +7432,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7239,31 +7446,31 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>360</v>
+        <v>107</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7288,13 +7495,13 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>80</v>
+        <v>344</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>80</v>
+        <v>345</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7312,13 +7519,13 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>80</v>
@@ -7327,16 +7534,16 @@
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7344,10 +7551,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7355,7 +7562,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>87</v>
@@ -7367,20 +7574,22 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O47" t="s" s="2">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7405,13 +7614,13 @@
         <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>372</v>
+        <v>80</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>373</v>
+        <v>80</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>80</v>
@@ -7429,7 +7638,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7444,16 +7653,16 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>375</v>
+        <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -7461,18 +7670,18 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>80</v>
+        <v>358</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>87</v>
@@ -7484,23 +7693,21 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>378</v>
+        <v>167</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7548,7 +7755,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7563,16 +7770,16 @@
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>80</v>
@@ -7580,18 +7787,18 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>79</v>
@@ -7603,23 +7810,21 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>386</v>
+        <v>167</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7667,7 +7872,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7682,16 +7887,16 @@
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>80</v>
@@ -7699,10 +7904,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7722,23 +7927,19 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>394</v>
+        <v>167</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>80</v>
       </c>
@@ -7786,7 +7987,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7798,19 +7999,19 @@
         <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>399</v>
+        <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>80</v>
@@ -7818,10 +8019,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7832,7 +8033,7 @@
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -7841,16 +8042,16 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>167</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>168</v>
+        <v>380</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>169</v>
+        <v>381</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7901,22 +8102,22 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>170</v>
+        <v>382</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>171</v>
+        <v>383</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>80</v>
@@ -7925,7 +8126,7 @@
         <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>80</v>
+        <v>384</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>80</v>
@@ -7933,21 +8134,21 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -7956,21 +8157,21 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>132</v>
+        <v>223</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>174</v>
+        <v>386</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8018,22 +8219,22 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>177</v>
+        <v>389</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>171</v>
+        <v>390</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>80</v>
@@ -8042,7 +8243,7 @@
         <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>80</v>
+        <v>391</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>80</v>
@@ -8050,14 +8251,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>404</v>
+        <v>80</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8070,25 +8271,25 @@
         <v>80</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>132</v>
+        <v>393</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>149</v>
+        <v>396</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>150</v>
+        <v>397</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8137,7 +8338,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8149,19 +8350,19 @@
         <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>130</v>
+        <v>398</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>80</v>
@@ -8169,10 +8370,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8180,10 +8381,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
@@ -8192,20 +8393,22 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>191</v>
+        <v>107</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="O54" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -8230,13 +8433,13 @@
         <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>80</v>
@@ -8254,13 +8457,13 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>80</v>
@@ -8269,16 +8472,16 @@
         <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>171</v>
+        <v>409</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>80</v>
@@ -8286,10 +8489,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8297,7 +8500,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>87</v>
@@ -8309,20 +8512,22 @@
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>259</v>
+        <v>412</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="O55" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8371,7 +8576,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8386,19 +8591,19 @@
         <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>264</v>
+        <v>417</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>171</v>
+        <v>418</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AO55" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="56">
@@ -8417,31 +8622,31 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>323</v>
+        <v>422</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>327</v>
+        <v>426</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8496,7 +8701,7 @@
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>80</v>
@@ -8505,7 +8710,7 @@
         <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>328</v>
+        <v>427</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>171</v>
@@ -8514,7 +8719,7 @@
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>80</v>
@@ -8522,10 +8727,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8536,7 +8741,7 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -8545,20 +8750,22 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>360</v>
+        <v>430</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="O57" t="s" s="2">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8607,13 +8814,13 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>80</v>
@@ -8622,16 +8829,16 @@
         <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>365</v>
+        <v>435</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>171</v>
+        <v>436</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>80</v>
@@ -8639,10 +8846,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8650,7 +8857,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>87</v>
@@ -8665,17 +8872,17 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>107</v>
+        <v>191</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>332</v>
+        <v>439</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8700,13 +8907,13 @@
         <v>80</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>336</v>
+        <v>442</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>337</v>
+        <v>443</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>80</v>
@@ -8724,7 +8931,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8739,16 +8946,16 @@
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>338</v>
+        <v>444</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>171</v>
+        <v>445</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>80</v>
@@ -8756,10 +8963,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8782,17 +8989,19 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>231</v>
+        <v>448</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="O59" t="s" s="2">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -8841,7 +9050,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8850,13 +9059,13 @@
         <v>87</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>439</v>
+        <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>171</v>
@@ -8865,7 +9074,7 @@
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>80</v>
@@ -8873,10 +9082,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8887,7 +9096,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -8899,16 +9108,20 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>223</v>
+        <v>456</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
       </c>
@@ -8956,13 +9169,13 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>80</v>
@@ -8971,7 +9184,7 @@
         <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>171</v>
@@ -8980,7 +9193,7 @@
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>80</v>
+        <v>462</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>80</v>
@@ -8988,10 +9201,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9014,19 +9227,19 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>394</v>
+        <v>464</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9075,7 +9288,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9087,13 +9300,13 @@
         <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>99</v>
+        <v>469</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>452</v>
+        <v>171</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
@@ -9107,10 +9320,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9222,10 +9435,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9339,14 +9552,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>404</v>
+        <v>474</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9368,10 +9581,10 @@
         <v>132</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>405</v>
+        <v>475</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>406</v>
+        <v>476</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>149</v>
@@ -9426,7 +9639,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>407</v>
+        <v>477</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9458,10 +9671,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9469,10 +9682,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>80</v>
@@ -9487,16 +9700,14 @@
         <v>191</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -9521,13 +9732,13 @@
         <v>80</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>112</v>
+        <v>482</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>113</v>
+        <v>483</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>80</v>
@@ -9545,13 +9756,13 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>80</v>
@@ -9560,16 +9771,16 @@
         <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>461</v>
+        <v>484</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>462</v>
+        <v>171</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>463</v>
+        <v>485</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>80</v>
@@ -9577,10 +9788,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9603,19 +9814,17 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>250</v>
+        <v>329</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>465</v>
+        <v>487</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>468</v>
+        <v>489</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -9664,7 +9873,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9679,16 +9888,16 @@
         <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>469</v>
+        <v>334</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>470</v>
+        <v>171</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>471</v>
+        <v>490</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>80</v>
@@ -9696,14 +9905,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>473</v>
+        <v>80</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9722,18 +9931,20 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>474</v>
+        <v>393</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="O67" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
       </c>
@@ -9781,7 +9992,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9796,7 +10007,7 @@
         <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>478</v>
+        <v>398</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>171</v>
@@ -9805,7 +10016,7 @@
         <v>80</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>80</v>
@@ -9813,10 +10024,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9824,7 +10035,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>87</v>
@@ -9836,22 +10047,20 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>231</v>
+        <v>430</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>483</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
@@ -9900,7 +10109,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9915,16 +10124,16 @@
         <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>485</v>
+        <v>171</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>80</v>
@@ -9932,10 +10141,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9946,31 +10155,29 @@
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>394</v>
+        <v>107</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>487</v>
+        <v>402</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>489</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -9995,13 +10202,13 @@
         <v>80</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>80</v>
+        <v>406</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>80</v>
+        <v>407</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>80</v>
@@ -10019,13 +10226,13 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>80</v>
@@ -10034,7 +10241,7 @@
         <v>99</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>491</v>
+        <v>408</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>171</v>
@@ -10043,7 +10250,7 @@
         <v>80</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>80</v>
+        <v>504</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>80</v>
@@ -10051,10 +10258,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10077,16 +10284,18 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>167</v>
+        <v>231</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>168</v>
+        <v>506</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>169</v>
+        <v>507</v>
       </c>
       <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>508</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10134,7 +10343,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>170</v>
+        <v>505</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10143,22 +10352,22 @@
         <v>87</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>80</v>
+        <v>509</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AL70" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>80</v>
+        <v>511</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>80</v>
@@ -10166,21 +10375,21 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>80</v>
@@ -10192,17 +10401,15 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>132</v>
+        <v>223</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>174</v>
+        <v>513</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>80</v>
@@ -10251,25 +10458,25 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>177</v>
+        <v>512</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK71" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
@@ -10283,14 +10490,14 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>494</v>
+        <v>516</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>494</v>
+        <v>516</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>404</v>
+        <v>80</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10303,25 +10510,25 @@
         <v>80</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>132</v>
+        <v>464</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>405</v>
+        <v>517</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>406</v>
+        <v>518</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>149</v>
+        <v>519</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>150</v>
+        <v>520</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -10370,7 +10577,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>407</v>
+        <v>516</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10382,13 +10589,13 @@
         <v>80</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>130</v>
+        <v>521</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>80</v>
+        <v>522</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
@@ -10402,10 +10609,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>495</v>
+        <v>523</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>495</v>
+        <v>523</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10413,7 +10620,7 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>87</v>
@@ -10425,20 +10632,18 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>496</v>
+        <v>167</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>497</v>
+        <v>168</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>499</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -10487,10 +10692,10 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>495</v>
+        <v>170</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>87</v>
@@ -10499,19 +10704,19 @@
         <v>80</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>80</v>
@@ -10519,21 +10724,21 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>80</v>
@@ -10542,18 +10747,20 @@
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>502</v>
+        <v>174</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -10578,57 +10785,1352 @@
         <v>80</v>
       </c>
       <c r="X74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="P75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="P77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="P79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="P80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="P83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X85" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="Y74" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
+      <c r="Y85" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AK74" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AL74" t="s" s="2">
+      <c r="AK85" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AL85" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AM74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO74" t="s" s="2">
+      <c r="AM85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO85" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T10:12:47+00:00</t>
+    <t>2023-03-07T10:15:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T10:15:46+00:00</t>
+    <t>2023-03-07T11:05:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T11:05:08+00:00</t>
+    <t>2023-03-07T11:15:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T11:15:07+00:00</t>
+    <t>2023-03-07T11:33:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T11:33:22+00:00</t>
+    <t>2023-03-07T11:34:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T11:34:06+00:00</t>
+    <t>2023-03-07T12:11:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T12:11:05+00:00</t>
+    <t>2023-03-07T14:32:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T14:32:58+00:00</t>
+    <t>2023-03-07T14:40:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T14:40:09+00:00</t>
+    <t>2023-03-07T14:56:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T14:56:30+00:00</t>
+    <t>2023-03-07T15:06:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T15:06:57+00:00</t>
+    <t>2023-03-07T15:46:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T15:46:47+00:00</t>
+    <t>2023-03-07T15:55:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T15:55:51+00:00</t>
+    <t>2023-03-07T16:02:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:02:22+00:00</t>
+    <t>2023-03-07T16:10:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:10:56+00:00</t>
+    <t>2023-03-07T16:20:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:20:26+00:00</t>
+    <t>2023-03-07T16:27:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:27:46+00:00</t>
+    <t>2023-03-07T16:36:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:36:29+00:00</t>
+    <t>2023-03-07T16:37:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:37:52+00:00</t>
+    <t>2023-03-07T16:59:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:59:55+00:00</t>
+    <t>2023-03-07T17:01:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
